--- a/ServiceStatus/Data.xlsx
+++ b/ServiceStatus/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumitThapar\Documents\Visual Studio 2015\Projects\ServiceStatus\ServiceStatus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumitThapar\Documents\GitHub\Windows-Services-Health-Check-For-Servers\ServiceStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9360BE86-AE36-453A-AED2-E7CE8826E5CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527CA5C-C8E9-48DB-AC63-38AAD780543E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Emails" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
   <si>
     <t>Service</t>
   </si>
@@ -46,9 +46,6 @@
     <t>neelkanth03@outlook.com</t>
   </si>
   <si>
-    <t>Pushpa#86</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -166,31 +163,34 @@
     <t>780379-NGAMWB1     --- SIT-2</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>ose64</t>
   </si>
   <si>
     <t>Office 64 Source Engine</t>
   </si>
   <si>
-    <t>defragsvc</t>
-  </si>
-  <si>
-    <t>Optimize drives</t>
-  </si>
-  <si>
     <t>QWAVE</t>
   </si>
   <si>
     <t>Quality Windows Audio Video Experience</t>
   </si>
   <si>
-    <t>Stopped</t>
+    <t>Themes</t>
+  </si>
+  <si>
+    <t>To be Checked</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>vmvss</t>
+  </si>
+  <si>
+    <t>VMware Snapshot Provider</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -477,9 +477,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,6 +487,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4483BB-A713-4038-B89E-52B4F94F77F7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -845,11 +854,9 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -912,11 +919,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EF52C0-149B-46FA-A76E-16ADB7415972}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,172 +931,190 @@
     <col min="1" max="16384" width="16.81640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="H3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="B4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="B5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>53</v>
+      <c r="B6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1097,15 +1122,12 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B6" xr:uid="{66B6ECB9-11CD-4A79-BE5E-E4779879D656}">
-      <formula1>"TRUE,FALSE"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:J6" xr:uid="{CF48E03D-422E-48DC-9ED0-94A6E8A5FC42}">
+      <formula1>"Running,Stopped"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:I3" xr:uid="{D3724495-476E-49A4-8554-A555AD47DA71}">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:I6" xr:uid="{CF48E03D-422E-48DC-9ED0-94A6E8A5FC42}">
-      <formula1>"Running,Stopped"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:J3 B4:B6" xr:uid="{E4DF3A1F-2448-481A-92D1-C31631DFDC94}">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,7 +1139,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,34 +1149,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1186,159 +1208,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1375,136 +1397,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="36"/>
       <c r="L2" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="37"/>
+      <c r="B3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="19">
         <v>0.46527777777777773</v>
@@ -1512,69 +1534,69 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="19">
         <v>0.46527777777777773</v>
@@ -1582,197 +1604,197 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceStatus/Data.xlsx
+++ b/ServiceStatus/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumitThapar\Documents\GitHub\Windows-Services-Health-Check-For-Servers\ServiceStatus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumitThapar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527CA5C-C8E9-48DB-AC63-38AAD780543E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A063E5-9238-4F59-9052-292FBCB911AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Emails" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="46">
   <si>
     <t>Service</t>
   </si>
@@ -43,9 +43,6 @@
     <t>From</t>
   </si>
   <si>
-    <t>neelkanth03@outlook.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -136,31 +133,10 @@
     <t>Service Name</t>
   </si>
   <si>
-    <t>172.25.80.212</t>
-  </si>
-  <si>
-    <t>172.25.80.52</t>
-  </si>
-  <si>
-    <t>172.25.80.208</t>
-  </si>
-  <si>
     <t>Servers</t>
   </si>
   <si>
     <t>IP</t>
-  </si>
-  <si>
-    <t>846140-WEB3   -- PreSIT</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>758335-NGFOFWB1    --- SIT-1</t>
-  </si>
-  <si>
-    <t>780379-NGAMWB1     --- SIT-2</t>
   </si>
   <si>
     <t>ose64</t>
@@ -197,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,19 +224,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FFE01E5A"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -421,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -461,16 +424,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4483BB-A713-4038-B89E-52B4F94F77F7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -851,12 +805,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -921,200 +873,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EF52C0-149B-46FA-A76E-16ADB7415972}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="16.81640625" style="21"/>
+    <col min="1" max="16384" width="16.81640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>48</v>
+      <c r="I1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="B4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="B5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>27</v>
+      <c r="B6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1139,45 +1091,39 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1208,159 +1154,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD1E08B-0B50-4C05-BE35-2173D088A4D9}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,405 +1342,386 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="35" t="s">
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="L2" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
-      <c r="B3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0.46527777777777773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0.46527777777777773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1823,10 +1750,6 @@
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" display="https://nationalgrid-emr.slack.com/archives/DSS5BQ4F4/p1591940423005500" xr:uid="{6E2BFFBB-C634-4CF7-B8D7-1B7FD562FD97}"/>
-    <hyperlink ref="L7" r:id="rId2" display="https://nationalgrid-emr.slack.com/archives/DSS5BQ4F4/p1591940448005900" xr:uid="{C515E89B-B223-43A3-8628-B86488407A3D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>